--- a/profs/xlsx/Расписание Мельников Валерий Ефимович.xlsx
+++ b/profs/xlsx/Расписание Мельников Валерий Ефимович.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t xml:space="preserve">Расписание на осенний семестр 2018/19 года обучения
 для преподавателя Мельников В.Е.</t>
@@ -60,13 +60,20 @@
     <t xml:space="preserve">ауд.308(3), Элементы приборов и систем ориентации и навигации, ПЗ, М3О-303С-16 (10.09-08.10) </t>
   </si>
   <si>
+    <t xml:space="preserve">ауд.342(3), Элементы навигационных приборов и систем, ЛР, М3О-213Б-17 (19.11-17.12) 
+---
+ауд.408(3), Элементы навигационных приборов и систем, ЛК, М3О-304С-16 (10.09-17.12) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.342(3), Элементы навигационных приборов и систем, ЛР, М3О-213Б-17 (19.11-17.12) 
+---
+ауд.408(3), Элементы навигационных приборов и систем, ЛК, М3О-304С-16 (10.09-19.11) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.308(3), Элементы приборов и систем ориентации и навигации, ЛК, М3О-303С-16 (03.09-24.12) </t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд.408(3), Элементы навигационных приборов и систем, ЛК, М3О-304С-16 (03.09-24.12) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.408(3), Элементы навигационных приборов и систем, ЛК, М3О-304С-16 (10.09-19.11) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.308(3), Элементы приборов и систем ориентации и навигации, ЛК, М3О-303С-16 (03.09-24.12) </t>
   </si>
   <si>
     <t xml:space="preserve">Вторник</t>
@@ -375,7 +382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="1" customFormat="true" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -399,7 +406,9 @@
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -407,7 +416,7 @@
     </row>
     <row r="7" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -429,7 +438,7 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -445,22 +454,22 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -472,7 +481,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -481,11 +490,11 @@
     </row>
     <row r="13" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -505,19 +514,19 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -526,10 +535,10 @@
     <row r="16" s="1" customFormat="true" ht="125.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -539,7 +548,7 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -566,17 +575,16 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="48">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>

--- a/profs/xlsx/Расписание Мельников Валерий Ефимович.xlsx
+++ b/profs/xlsx/Расписание Мельников Валерий Ефимович.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="0" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -335,8 +335,8 @@
   </sheetPr>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
